--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masa-T\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ku_mo\Dropbox\PC\Documents\High&amp;Low\High-and-Low\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>タスク</t>
   </si>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>High and Low</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ブラックジャック</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -304,33 +300,33 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -558,7 +554,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="K8" activeCellId="1" sqref="M5 K8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -569,85 +565,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="12"/>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="17" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="10"/>
       <c r="G3" s="2">
         <v>3</v>
@@ -687,133 +683,132 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3">
         <v>45538</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="F4" s="3">
+        <v>45538</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="E5" s="3">
+        <v>45538</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45538</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="A3:F3"/>
@@ -822,6 +817,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:Q1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="G2:Q996 G1">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ku_mo\Dropbox\PC\Documents\High&amp;Low\High-and-Low\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masa-T\OneDrive\デスクトップ\High-and-Low\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>タスク</t>
   </si>
@@ -27,9 +27,6 @@
     <t>担当者</t>
   </si>
   <si>
-    <t>工数</t>
-  </si>
-  <si>
     <t>開始日</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>水</t>
-  </si>
-  <si>
-    <t>プロジェクト名</t>
   </si>
   <si>
     <t>要件定義</t>
@@ -85,7 +79,132 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>High and Low</t>
+    <t>手札出し機能</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>山札機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スコア機能</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>岡</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>デザイン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>富田</t>
+    <rPh sb="0" eb="2">
+      <t>トミタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プロジェクト名：High and Low</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>工数(日)</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>田中ま</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>岡・田中ま</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポップアップ機能</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>手札カウント機能</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>勝ち負け機能</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>引き分け機能</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リセット機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -93,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -131,8 +250,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +298,32 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -171,17 +336,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -205,36 +359,25 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -244,19 +387,19 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -269,22 +412,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -292,41 +420,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -551,282 +709,464 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="122" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="17" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="16" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7">
+        <v>8</v>
+      </c>
+      <c r="L3" s="7">
+        <v>9</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" s="7">
+        <v>11</v>
+      </c>
+      <c r="O3" s="7">
+        <v>12</v>
+      </c>
+      <c r="P3" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="24">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>45538</v>
+      </c>
+      <c r="E4" s="9">
+        <v>45540</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="B5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="24">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>45538</v>
+      </c>
+      <c r="E5" s="9">
+        <v>45540</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="24">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>45538</v>
+      </c>
+      <c r="E6" s="9">
+        <v>45540</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="2">
+      <c r="B8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45538</v>
+      </c>
+      <c r="E8" s="27">
+        <v>45539</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>45538</v>
+      </c>
+      <c r="E9" s="27">
+        <v>45539</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2">
-        <v>7</v>
-      </c>
-      <c r="L3" s="2">
-        <v>8</v>
-      </c>
-      <c r="M3" s="2">
-        <v>9</v>
-      </c>
-      <c r="N3" s="2">
-        <v>10</v>
-      </c>
-      <c r="O3" s="2">
-        <v>11</v>
-      </c>
-      <c r="P3" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3">
+      <c r="D10" s="9">
         <v>45538</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E10" s="9">
+        <v>45540</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9">
         <v>45538</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3">
+      <c r="E12" s="9">
+        <v>45540</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9">
         <v>45538</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E13" s="27">
+        <v>45539</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="29">
+        <v>45540</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
+      <c r="D15" s="29">
         <v>45538</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="E15" s="29">
+        <v>45538</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:C4"/>
+  <mergeCells count="7">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="G2:Q996 G1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G1))&gt;0</formula>
+  <conditionalFormatting sqref="F1 F2:P14 F16:P998 I15:P15 F15:G15">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -79,29 +79,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>手札出し機能</t>
-    <rPh sb="0" eb="2">
-      <t>テフダ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>山札機能</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマフダ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>スコア機能</t>
     <rPh sb="3" eb="5">
       <t>キノウ</t>
@@ -158,36 +135,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ポップアップ機能</t>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>手札カウント機能</t>
-    <rPh sb="0" eb="2">
-      <t>テフダ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>勝ち負け機能</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>引き分け機能</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
@@ -203,6 +150,59 @@
   <si>
     <t>リセット機能</t>
     <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>手札機能</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>お題選択機能</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カード選択機能</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カード表示機能</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>判定機能</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -422,18 +422,6 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,13 +438,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,9 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,10 +459,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -711,8 +711,8 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="122" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -722,436 +722,436 @@
     <col min="6" max="16" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+    </row>
+    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45538</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45540</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45538</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45540</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45538</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45540</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45538</v>
+      </c>
+      <c r="E8" s="17">
+        <v>45539</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45538</v>
+      </c>
+      <c r="E9" s="17">
+        <v>45539</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45538</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45540</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45538</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45540</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7">
-        <v>4</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7">
-        <v>6</v>
-      </c>
-      <c r="J3" s="7">
-        <v>7</v>
-      </c>
-      <c r="K3" s="7">
-        <v>8</v>
-      </c>
-      <c r="L3" s="7">
-        <v>9</v>
-      </c>
-      <c r="M3" s="7">
-        <v>10</v>
-      </c>
-      <c r="N3" s="7">
-        <v>11</v>
-      </c>
-      <c r="O3" s="7">
-        <v>12</v>
-      </c>
-      <c r="P3" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="24">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="D13" s="3">
         <v>45538</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E13" s="17">
+        <v>45539</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="19">
         <v>45540</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="24">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="19">
         <v>45538</v>
       </c>
-      <c r="E5" s="9">
-        <v>45540</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="24">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="E15" s="19">
         <v>45538</v>
       </c>
-      <c r="E6" s="9">
-        <v>45540</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9">
-        <v>45538</v>
-      </c>
-      <c r="E8" s="27">
-        <v>45539</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>45538</v>
-      </c>
-      <c r="E9" s="27">
-        <v>45539</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="11">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9">
-        <v>45538</v>
-      </c>
-      <c r="E10" s="9">
-        <v>45540</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="14">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9">
-        <v>45538</v>
-      </c>
-      <c r="E12" s="9">
-        <v>45540</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="14">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>45538</v>
-      </c>
-      <c r="E13" s="27">
-        <v>45539</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="29">
-        <v>45540</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="14">
-        <v>2</v>
-      </c>
-      <c r="D15" s="29">
-        <v>45538</v>
-      </c>
-      <c r="E15" s="29">
-        <v>45538</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -711,8 +711,8 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1025,9 @@
         <v>29</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5">
+        <v>99</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>タスク</t>
   </si>
@@ -125,16 +125,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>岡・田中ま</t>
-    <rPh sb="0" eb="1">
-      <t>オカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タナカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>引き分け機能</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
@@ -204,6 +194,20 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>田中ま</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>岡</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -711,8 +715,8 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -938,11 +942,9 @@
     </row>
     <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>22</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B8" s="13"/>
       <c r="C8" s="2">
         <v>2</v>
       </c>
@@ -966,10 +968,10 @@
     </row>
     <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -994,7 +996,7 @@
     </row>
     <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>22</v>
@@ -1022,9 +1024,11 @@
     </row>
     <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="5">
         <v>99</v>
       </c>
@@ -1044,10 +1048,10 @@
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8">
         <v>3</v>
@@ -1072,11 +1076,9 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B13" s="18"/>
       <c r="C13" s="8">
         <v>2</v>
       </c>
@@ -1102,9 +1104,7 @@
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="B14" s="22"/>
       <c r="C14" s="8">
         <v>2</v>
       </c>
@@ -1126,11 +1126,9 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>17</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B15" s="22"/>
       <c r="C15" s="8">
         <v>2</v>
       </c>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>タスク</t>
   </si>
@@ -208,6 +208,20 @@
     <t>岡</t>
     <rPh sb="0" eb="1">
       <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>岡</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>田中ま</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -277,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,12 +314,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -424,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,8 +445,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,14 +455,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,10 +484,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,7 +719,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -727,83 +730,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="23" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="1">
         <v>3</v>
       </c>
@@ -842,22 +845,22 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="15">
-        <v>3</v>
+      <c r="C4" s="13">
+        <v>4</v>
       </c>
       <c r="D4" s="3">
         <v>45538</v>
       </c>
       <c r="E4" s="3">
-        <v>45540</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="4"/>
+        <v>45541</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -870,10 +873,10 @@
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="13">
         <v>3</v>
       </c>
       <c r="D5" s="3">
@@ -882,9 +885,9 @@
       <c r="E5" s="3">
         <v>45540</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -898,33 +901,33 @@
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15">
-        <v>2</v>
+      <c r="C6" s="13">
+        <v>7</v>
       </c>
       <c r="D6" s="3">
         <v>45538</v>
       </c>
       <c r="E6" s="3">
-        <v>45540</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="4"/>
+        <v>45546</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -944,19 +947,21 @@
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3">
         <v>45538</v>
       </c>
-      <c r="E8" s="17">
-        <v>45539</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4"/>
+      <c r="E8" s="3">
+        <v>45544</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -970,25 +975,25 @@
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>45538</v>
-      </c>
-      <c r="E9" s="17">
-        <v>45539</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+        <v>45540</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45544</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="5"/>
@@ -998,25 +1003,25 @@
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
         <v>45538</v>
       </c>
       <c r="E10" s="3">
-        <v>45540</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+        <v>45541</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
@@ -1026,22 +1031,26 @@
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="5">
-        <v>99</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45540</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45545</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
       <c r="N11" s="4"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -1050,27 +1059,27 @@
       <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>31</v>
+      <c r="B12" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3">
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="E12" s="3">
-        <v>45540</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="8"/>
+        <v>45546</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
@@ -1078,24 +1087,26 @@
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="C13" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
         <v>45538</v>
       </c>
-      <c r="E13" s="17">
-        <v>45539</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="8"/>
+      <c r="E13" s="3">
+        <v>45545</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -1104,23 +1115,27 @@
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" s="8">
-        <v>2</v>
-      </c>
-      <c r="D14" s="19">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15">
         <v>45540</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="E14" s="3">
+        <v>45546</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
@@ -1128,20 +1143,22 @@
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="8">
-        <v>2</v>
-      </c>
-      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
         <v>45538</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="15">
         <v>45538</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="16"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -1151,7 +1168,7 @@
       <c r="P15" s="8"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1164,7 +1181,7 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="F1 F2:P14 F16:P998 I15:P15 F15:G15">
+  <conditionalFormatting sqref="F1 F16:P998 I15:P15 F9:I15 F2:P14">
     <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
